--- a/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials Tech-DONGLE01.xlsx
+++ b/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials Tech-DONGLE01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#PCB#\DONGLE01\Project Outputs for DONGLE01\Generate Files\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BENADUCE\Documents\GitHub\Dongle01\Project Outputs for DONGLE01\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D46018-6076-4221-9627-2028EE2E496B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90922D2-BF29-47D2-AED7-E2E1B2869AEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14715" xr2:uid="{7E1DFCBA-A647-4859-9393-1E5B19C37F7B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14715" xr2:uid="{6CE37479-0B5D-4CCA-B11E-CE0E58196232}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials Tech-DONGLE01" sheetId="1" r:id="rId1"/>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DB4B91-E100-46F6-8B79-005F592E84F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929FD6D8-CE9F-40A3-AF64-6D893DB3F371}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials Tech-DONGLE01.xlsx
+++ b/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials Tech-DONGLE01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BENADUCE\Documents\GitHub\Dongle01\Project Outputs for DONGLE01\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90922D2-BF29-47D2-AED7-E2E1B2869AEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1BB31D5-0625-4528-9A53-B8C4DFDD52EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14715" xr2:uid="{6CE37479-0B5D-4CCA-B11E-CE0E58196232}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14715" xr2:uid="{80BF15A4-65AB-4166-B1D4-C227882C0DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials Tech-DONGLE01" sheetId="1" r:id="rId1"/>
@@ -840,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929FD6D8-CE9F-40A3-AF64-6D893DB3F371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7602772-D28A-4DC8-89CE-33BFF8E12EC9}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
